--- a/app/files/salarios.xlsx
+++ b/app/files/salarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\vinicius\dev\stey\test_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\vinicius\dev\stey\stey-app\app\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FB1DEA-0DD4-454D-973A-30B9A0C7526E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF33A581-E220-41B2-9F7F-BB488FCBB07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{572611DD-F66E-48A0-9D17-326BE06CFC96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572611DD-F66E-48A0-9D17-326BE06CFC96}"/>
   </bookViews>
   <sheets>
     <sheet name="Salarios" sheetId="1" r:id="rId1"/>
@@ -40,36 +40,6 @@
   </si>
   <si>
     <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Minas Gerais</t>
-  </si>
-  <si>
-    <t>Rio Grande do Sul</t>
-  </si>
-  <si>
-    <t>Ceará</t>
-  </si>
-  <si>
-    <t>Santa Catarina</t>
-  </si>
-  <si>
-    <t>Paraná</t>
-  </si>
-  <si>
-    <t>Goiás</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Distrito Federal</t>
-  </si>
-  <si>
-    <t>Pernambuco</t>
-  </si>
-  <si>
-    <t>Pará</t>
   </si>
   <si>
     <t>Mato Grosso</t>
@@ -142,6 +112,36 @@
   </si>
   <si>
     <t>UF</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>Porto Alegre</t>
+  </si>
+  <si>
+    <t>Goiania</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>Campinas</t>
+  </si>
+  <si>
+    <t>Brasilia - Audit</t>
+  </si>
+  <si>
+    <t>Brasilia - Ass</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
   </si>
 </sst>
 </file>
@@ -552,53 +552,53 @@
   <dimension ref="A1:K396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -632,8 +632,8 @@
         <v>6778.43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -667,9 +667,9 @@
         <v>6872.23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>5079.63</v>
@@ -702,9 +702,9 @@
         <v>6255.07</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="2">
         <v>4472.07</v>
@@ -737,9 +737,9 @@
         <v>5272.26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
       </c>
       <c r="B6" s="2">
         <v>2889.98</v>
@@ -772,9 +772,9 @@
         <v>5942.44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="2">
         <v>3290.18</v>
@@ -807,9 +807,9 @@
         <v>6448.83</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
       </c>
       <c r="B8" s="2">
         <v>3394.81</v>
@@ -842,9 +842,9 @@
         <v>5804.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="2">
         <v>4591.96</v>
@@ -877,9 +877,9 @@
         <v>5587.35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="2">
         <v>3804.65</v>
@@ -912,9 +912,9 @@
         <v>4566.34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
       </c>
       <c r="B11" s="2">
         <v>5168.7700000000004</v>
@@ -947,9 +947,9 @@
         <v>5196.07</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="2">
         <v>3437.85</v>
@@ -982,9 +982,9 @@
         <v>5180</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
       </c>
       <c r="B13" s="2">
         <v>5032.58</v>
@@ -1017,9 +1017,9 @@
         <v>4907.79</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
         <v>2728.38</v>
@@ -1052,9 +1052,9 @@
         <v>9146.14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2">
         <v>2813.42</v>
@@ -1087,9 +1087,9 @@
         <v>5116.2700000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2">
         <v>2963.73</v>
@@ -1122,9 +1122,9 @@
         <v>6487.69</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2">
         <v>2755.58</v>
@@ -1157,9 +1157,9 @@
         <v>4773.45</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2">
         <v>2072.5</v>
@@ -1192,9 +1192,9 @@
         <v>4650.0600000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
         <v>1536.98</v>
@@ -1227,9 +1227,9 @@
         <v>4608.0200000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
         <v>4925.9399999999996</v>
@@ -1262,9 +1262,9 @@
         <v>4699.78</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2">
         <v>3310.08</v>
@@ -1297,9 +1297,9 @@
         <v>5991.27</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2">
         <v>3287.89</v>
@@ -1332,9 +1332,9 @@
         <v>5220.38</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2">
         <v>4619.5600000000004</v>
@@ -1367,9 +1367,9 @@
         <v>4102.4399999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2">
         <v>2083.88</v>
@@ -1402,9 +1402,9 @@
         <v>4499.7700000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B25" s="2">
         <v>1100</v>
@@ -1437,9 +1437,9 @@
         <v>6486.66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2">
         <v>2482.4</v>
@@ -1472,7 +1472,7 @@
         <v>6365.63</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1483,7 +1483,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1494,7 +1494,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1505,7 +1505,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1516,7 +1516,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1527,7 +1527,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1538,7 +1538,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1549,7 +1549,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1560,7 +1560,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1571,7 +1571,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1582,7 +1582,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1593,7 +1593,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1604,7 +1604,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1615,7 +1615,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1626,7 +1626,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1637,7 +1637,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1648,7 +1648,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1659,7 +1659,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1670,7 +1670,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1681,7 +1681,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -1692,7 +1692,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -1703,7 +1703,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -1714,7 +1714,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -1725,7 +1725,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -1736,7 +1736,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -1747,7 +1747,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -1758,7 +1758,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1769,7 +1769,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1780,7 +1780,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -1791,7 +1791,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -1802,7 +1802,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -1813,7 +1813,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -1824,7 +1824,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -1835,7 +1835,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -1846,7 +1846,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -1857,7 +1857,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -1868,7 +1868,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -1879,7 +1879,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -1890,7 +1890,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -1901,7 +1901,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -1912,7 +1912,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -1923,7 +1923,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -1934,7 +1934,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -1945,7 +1945,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -1956,7 +1956,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -1967,7 +1967,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -1978,7 +1978,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -1989,7 +1989,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2000,7 +2000,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -2011,7 +2011,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2022,7 +2022,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2033,7 +2033,7 @@
       <c r="J77" s="3"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -2044,7 +2044,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -2055,7 +2055,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -2066,7 +2066,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -2077,7 +2077,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -2088,7 +2088,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -2099,7 +2099,7 @@
       <c r="J83" s="3"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -2110,7 +2110,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -2121,7 +2121,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -2132,7 +2132,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -2143,7 +2143,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -2154,7 +2154,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -2165,7 +2165,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -2176,7 +2176,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -2187,7 +2187,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -2198,7 +2198,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -2209,7 +2209,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -2220,7 +2220,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -2231,7 +2231,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -2242,7 +2242,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -2253,7 +2253,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -2264,7 +2264,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -2275,7 +2275,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -2286,7 +2286,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -2297,7 +2297,7 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -2308,7 +2308,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -2319,7 +2319,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -2330,7 +2330,7 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -2341,7 +2341,7 @@
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -2352,7 +2352,7 @@
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -2363,7 +2363,7 @@
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -2374,7 +2374,7 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -2385,7 +2385,7 @@
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -2396,7 +2396,7 @@
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -2407,7 +2407,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -2418,7 +2418,7 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -2429,7 +2429,7 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -2440,7 +2440,7 @@
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -2451,7 +2451,7 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -2462,7 +2462,7 @@
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -2473,7 +2473,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -2484,7 +2484,7 @@
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -2495,7 +2495,7 @@
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -2506,7 +2506,7 @@
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -2517,7 +2517,7 @@
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -2528,7 +2528,7 @@
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -2539,7 +2539,7 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -2550,7 +2550,7 @@
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -2561,7 +2561,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -2572,7 +2572,7 @@
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -2583,7 +2583,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -2594,7 +2594,7 @@
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -2605,7 +2605,7 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -2616,7 +2616,7 @@
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -2627,7 +2627,7 @@
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
     </row>
-    <row r="132" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -2638,7 +2638,7 @@
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -2649,7 +2649,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
     </row>
-    <row r="134" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -2660,7 +2660,7 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -2671,7 +2671,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -2682,7 +2682,7 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -2693,7 +2693,7 @@
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
     </row>
-    <row r="138" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -2704,7 +2704,7 @@
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -2715,7 +2715,7 @@
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
     </row>
-    <row r="140" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -2726,7 +2726,7 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -2737,7 +2737,7 @@
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
     </row>
-    <row r="142" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -2748,7 +2748,7 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -2759,7 +2759,7 @@
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
     </row>
-    <row r="144" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -2770,7 +2770,7 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -2781,7 +2781,7 @@
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
     </row>
-    <row r="146" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -2792,7 +2792,7 @@
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -2803,7 +2803,7 @@
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -2814,7 +2814,7 @@
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -2825,7 +2825,7 @@
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -2836,7 +2836,7 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -2847,7 +2847,7 @@
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -2858,7 +2858,7 @@
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -2869,7 +2869,7 @@
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -2880,7 +2880,7 @@
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -2891,7 +2891,7 @@
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -2902,7 +2902,7 @@
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -2913,7 +2913,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -2924,7 +2924,7 @@
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -2935,7 +2935,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
     </row>
-    <row r="160" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -2946,7 +2946,7 @@
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
     </row>
-    <row r="161" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -2957,7 +2957,7 @@
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
     </row>
-    <row r="162" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -2968,7 +2968,7 @@
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
     </row>
-    <row r="163" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -2979,7 +2979,7 @@
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
     </row>
-    <row r="164" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -2990,7 +2990,7 @@
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -3001,7 +3001,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -3012,7 +3012,7 @@
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
     </row>
-    <row r="167" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -3023,7 +3023,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
     </row>
-    <row r="168" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -3034,7 +3034,7 @@
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
     </row>
-    <row r="169" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -3045,7 +3045,7 @@
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
     </row>
-    <row r="170" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -3056,7 +3056,7 @@
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
     </row>
-    <row r="171" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -3067,7 +3067,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -3078,7 +3078,7 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -3089,7 +3089,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
     </row>
-    <row r="174" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -3100,7 +3100,7 @@
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
     </row>
-    <row r="175" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -3111,7 +3111,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
     </row>
-    <row r="176" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -3122,7 +3122,7 @@
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
     </row>
-    <row r="177" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -3133,7 +3133,7 @@
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
     </row>
-    <row r="178" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -3144,7 +3144,7 @@
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
     </row>
-    <row r="179" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -3155,7 +3155,7 @@
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -3166,7 +3166,7 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -3177,7 +3177,7 @@
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
     </row>
-    <row r="182" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -3188,7 +3188,7 @@
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -3199,7 +3199,7 @@
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
     </row>
-    <row r="184" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -3210,7 +3210,7 @@
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
     </row>
-    <row r="185" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -3221,7 +3221,7 @@
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
     </row>
-    <row r="186" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -3232,7 +3232,7 @@
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
     </row>
-    <row r="187" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -3243,7 +3243,7 @@
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
     </row>
-    <row r="188" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -3254,7 +3254,7 @@
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
     </row>
-    <row r="189" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -3265,7 +3265,7 @@
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
     </row>
-    <row r="190" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -3276,7 +3276,7 @@
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
     </row>
-    <row r="191" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -3287,7 +3287,7 @@
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
     </row>
-    <row r="192" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -3298,7 +3298,7 @@
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
     </row>
-    <row r="193" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -3309,7 +3309,7 @@
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
     </row>
-    <row r="194" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -3320,7 +3320,7 @@
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
     </row>
-    <row r="195" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -3331,7 +3331,7 @@
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
     </row>
-    <row r="196" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -3342,7 +3342,7 @@
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
     </row>
-    <row r="197" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -3353,7 +3353,7 @@
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
     </row>
-    <row r="198" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -3364,7 +3364,7 @@
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
     </row>
-    <row r="199" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -3375,7 +3375,7 @@
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
     </row>
-    <row r="200" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -3386,7 +3386,7 @@
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
     </row>
-    <row r="201" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -3397,7 +3397,7 @@
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
     </row>
-    <row r="202" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -3408,7 +3408,7 @@
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
     </row>
-    <row r="203" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -3419,7 +3419,7 @@
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
     </row>
-    <row r="204" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -3430,7 +3430,7 @@
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
     </row>
-    <row r="205" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -3441,7 +3441,7 @@
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
     </row>
-    <row r="206" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -3452,7 +3452,7 @@
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
     </row>
-    <row r="207" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -3463,7 +3463,7 @@
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
     </row>
-    <row r="208" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -3474,7 +3474,7 @@
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
     </row>
-    <row r="209" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -3485,7 +3485,7 @@
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
     </row>
-    <row r="210" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -3496,7 +3496,7 @@
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
     </row>
-    <row r="211" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -3507,7 +3507,7 @@
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
     </row>
-    <row r="212" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -3518,7 +3518,7 @@
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
     </row>
-    <row r="213" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -3529,7 +3529,7 @@
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
     </row>
-    <row r="214" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -3540,7 +3540,7 @@
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
     </row>
-    <row r="215" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -3551,7 +3551,7 @@
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
     </row>
-    <row r="216" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -3562,7 +3562,7 @@
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
     </row>
-    <row r="217" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -3573,7 +3573,7 @@
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
     </row>
-    <row r="218" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -3584,7 +3584,7 @@
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
     </row>
-    <row r="219" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -3595,7 +3595,7 @@
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
     </row>
-    <row r="220" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -3606,7 +3606,7 @@
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
     </row>
-    <row r="221" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -3617,7 +3617,7 @@
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
     </row>
-    <row r="222" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -3628,7 +3628,7 @@
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
     </row>
-    <row r="223" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -3639,7 +3639,7 @@
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
     </row>
-    <row r="224" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -3650,7 +3650,7 @@
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
     </row>
-    <row r="225" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -3661,7 +3661,7 @@
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
     </row>
-    <row r="226" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -3672,7 +3672,7 @@
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
     </row>
-    <row r="227" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -3683,7 +3683,7 @@
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
     </row>
-    <row r="228" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -3694,7 +3694,7 @@
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
     </row>
-    <row r="229" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -3705,7 +3705,7 @@
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
     </row>
-    <row r="230" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -3716,7 +3716,7 @@
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
     </row>
-    <row r="231" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -3727,7 +3727,7 @@
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
     </row>
-    <row r="232" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -3738,7 +3738,7 @@
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
     </row>
-    <row r="233" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -3749,7 +3749,7 @@
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
     </row>
-    <row r="234" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -3760,7 +3760,7 @@
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
     </row>
-    <row r="235" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -3771,7 +3771,7 @@
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
     </row>
-    <row r="236" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -3782,7 +3782,7 @@
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
     </row>
-    <row r="237" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -3793,7 +3793,7 @@
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
     </row>
-    <row r="238" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -3804,7 +3804,7 @@
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
     </row>
-    <row r="239" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -3815,7 +3815,7 @@
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
     </row>
-    <row r="240" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -3826,7 +3826,7 @@
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
     </row>
-    <row r="241" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -3837,7 +3837,7 @@
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
     </row>
-    <row r="242" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -3848,7 +3848,7 @@
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
     </row>
-    <row r="243" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -3859,7 +3859,7 @@
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
     </row>
-    <row r="244" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -3870,7 +3870,7 @@
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
     </row>
-    <row r="245" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -3881,7 +3881,7 @@
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
     </row>
-    <row r="246" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -3892,7 +3892,7 @@
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
     </row>
-    <row r="247" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -3903,7 +3903,7 @@
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
     </row>
-    <row r="248" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -3914,7 +3914,7 @@
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
     </row>
-    <row r="249" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -3925,7 +3925,7 @@
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
     </row>
-    <row r="250" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -3936,7 +3936,7 @@
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
     </row>
-    <row r="251" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -3947,7 +3947,7 @@
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
     </row>
-    <row r="252" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -3958,7 +3958,7 @@
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
     </row>
-    <row r="253" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -3969,7 +3969,7 @@
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
     </row>
-    <row r="254" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -3980,7 +3980,7 @@
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
     </row>
-    <row r="255" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -3991,7 +3991,7 @@
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
     </row>
-    <row r="256" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -4002,7 +4002,7 @@
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
     </row>
-    <row r="257" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -4013,7 +4013,7 @@
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
     </row>
-    <row r="258" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -4024,7 +4024,7 @@
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
     </row>
-    <row r="259" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -4035,7 +4035,7 @@
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
     </row>
-    <row r="260" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -4046,7 +4046,7 @@
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
     </row>
-    <row r="261" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -4057,7 +4057,7 @@
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
     </row>
-    <row r="262" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -4068,7 +4068,7 @@
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
     </row>
-    <row r="263" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -4079,7 +4079,7 @@
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
     </row>
-    <row r="264" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -4090,7 +4090,7 @@
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
     </row>
-    <row r="265" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -4101,7 +4101,7 @@
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
     </row>
-    <row r="266" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -4112,7 +4112,7 @@
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
     </row>
-    <row r="267" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -4123,7 +4123,7 @@
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
     </row>
-    <row r="268" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -4134,7 +4134,7 @@
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
     </row>
-    <row r="269" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -4145,7 +4145,7 @@
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
     </row>
-    <row r="270" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -4156,7 +4156,7 @@
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
     </row>
-    <row r="271" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -4167,7 +4167,7 @@
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
     </row>
-    <row r="272" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -4178,7 +4178,7 @@
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
     </row>
-    <row r="273" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -4189,7 +4189,7 @@
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
     </row>
-    <row r="274" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -4200,7 +4200,7 @@
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
     </row>
-    <row r="275" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -4211,7 +4211,7 @@
       <c r="J275" s="3"/>
       <c r="K275" s="3"/>
     </row>
-    <row r="276" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -4222,7 +4222,7 @@
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
     </row>
-    <row r="277" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -4233,7 +4233,7 @@
       <c r="J277" s="3"/>
       <c r="K277" s="3"/>
     </row>
-    <row r="278" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -4244,7 +4244,7 @@
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
     </row>
-    <row r="279" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -4255,7 +4255,7 @@
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
     </row>
-    <row r="280" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -4266,7 +4266,7 @@
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
     </row>
-    <row r="281" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -4277,7 +4277,7 @@
       <c r="J281" s="3"/>
       <c r="K281" s="3"/>
     </row>
-    <row r="282" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -4288,7 +4288,7 @@
       <c r="J282" s="3"/>
       <c r="K282" s="3"/>
     </row>
-    <row r="283" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -4299,7 +4299,7 @@
       <c r="J283" s="3"/>
       <c r="K283" s="3"/>
     </row>
-    <row r="284" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -4310,7 +4310,7 @@
       <c r="J284" s="3"/>
       <c r="K284" s="3"/>
     </row>
-    <row r="285" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -4321,7 +4321,7 @@
       <c r="J285" s="3"/>
       <c r="K285" s="3"/>
     </row>
-    <row r="286" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -4332,7 +4332,7 @@
       <c r="J286" s="3"/>
       <c r="K286" s="3"/>
     </row>
-    <row r="287" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -4343,7 +4343,7 @@
       <c r="J287" s="3"/>
       <c r="K287" s="3"/>
     </row>
-    <row r="288" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -4354,7 +4354,7 @@
       <c r="J288" s="3"/>
       <c r="K288" s="3"/>
     </row>
-    <row r="289" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -4365,7 +4365,7 @@
       <c r="J289" s="3"/>
       <c r="K289" s="3"/>
     </row>
-    <row r="290" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -4376,7 +4376,7 @@
       <c r="J290" s="3"/>
       <c r="K290" s="3"/>
     </row>
-    <row r="291" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -4387,7 +4387,7 @@
       <c r="J291" s="3"/>
       <c r="K291" s="3"/>
     </row>
-    <row r="292" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -4398,7 +4398,7 @@
       <c r="J292" s="3"/>
       <c r="K292" s="3"/>
     </row>
-    <row r="293" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -4409,7 +4409,7 @@
       <c r="J293" s="3"/>
       <c r="K293" s="3"/>
     </row>
-    <row r="294" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -4420,7 +4420,7 @@
       <c r="J294" s="3"/>
       <c r="K294" s="3"/>
     </row>
-    <row r="295" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -4431,7 +4431,7 @@
       <c r="J295" s="3"/>
       <c r="K295" s="3"/>
     </row>
-    <row r="296" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -4442,7 +4442,7 @@
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
     </row>
-    <row r="297" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -4453,7 +4453,7 @@
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
     </row>
-    <row r="298" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -4464,7 +4464,7 @@
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
     </row>
-    <row r="299" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -4475,7 +4475,7 @@
       <c r="J299" s="3"/>
       <c r="K299" s="3"/>
     </row>
-    <row r="300" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -4486,7 +4486,7 @@
       <c r="J300" s="3"/>
       <c r="K300" s="3"/>
     </row>
-    <row r="301" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -4497,7 +4497,7 @@
       <c r="J301" s="3"/>
       <c r="K301" s="3"/>
     </row>
-    <row r="302" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -4508,7 +4508,7 @@
       <c r="J302" s="3"/>
       <c r="K302" s="3"/>
     </row>
-    <row r="303" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -4519,7 +4519,7 @@
       <c r="J303" s="3"/>
       <c r="K303" s="3"/>
     </row>
-    <row r="304" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -4530,7 +4530,7 @@
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
     </row>
-    <row r="305" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -4541,7 +4541,7 @@
       <c r="J305" s="3"/>
       <c r="K305" s="3"/>
     </row>
-    <row r="306" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -4552,7 +4552,7 @@
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
     </row>
-    <row r="307" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -4563,7 +4563,7 @@
       <c r="J307" s="3"/>
       <c r="K307" s="3"/>
     </row>
-    <row r="308" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -4574,7 +4574,7 @@
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
     </row>
-    <row r="309" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -4585,7 +4585,7 @@
       <c r="J309" s="3"/>
       <c r="K309" s="3"/>
     </row>
-    <row r="310" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -4596,7 +4596,7 @@
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
     </row>
-    <row r="311" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -4607,7 +4607,7 @@
       <c r="J311" s="3"/>
       <c r="K311" s="3"/>
     </row>
-    <row r="312" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -4618,7 +4618,7 @@
       <c r="J312" s="3"/>
       <c r="K312" s="3"/>
     </row>
-    <row r="313" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -4629,7 +4629,7 @@
       <c r="J313" s="3"/>
       <c r="K313" s="3"/>
     </row>
-    <row r="314" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -4640,7 +4640,7 @@
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
     </row>
-    <row r="315" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -4651,7 +4651,7 @@
       <c r="J315" s="3"/>
       <c r="K315" s="3"/>
     </row>
-    <row r="316" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -4662,7 +4662,7 @@
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
     </row>
-    <row r="317" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -4673,7 +4673,7 @@
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
     </row>
-    <row r="318" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -4684,7 +4684,7 @@
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
     </row>
-    <row r="319" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -4695,7 +4695,7 @@
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
     </row>
-    <row r="320" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -4706,7 +4706,7 @@
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
     </row>
-    <row r="321" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -4717,7 +4717,7 @@
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
     </row>
-    <row r="322" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -4728,7 +4728,7 @@
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
     </row>
-    <row r="323" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -4739,7 +4739,7 @@
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
     </row>
-    <row r="324" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -4750,7 +4750,7 @@
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
     </row>
-    <row r="325" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -4761,7 +4761,7 @@
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
     </row>
-    <row r="326" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -4772,7 +4772,7 @@
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
     </row>
-    <row r="327" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -4783,7 +4783,7 @@
       <c r="J327" s="3"/>
       <c r="K327" s="3"/>
     </row>
-    <row r="328" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -4794,7 +4794,7 @@
       <c r="J328" s="3"/>
       <c r="K328" s="3"/>
     </row>
-    <row r="329" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -4805,7 +4805,7 @@
       <c r="J329" s="3"/>
       <c r="K329" s="3"/>
     </row>
-    <row r="330" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -4816,7 +4816,7 @@
       <c r="J330" s="3"/>
       <c r="K330" s="3"/>
     </row>
-    <row r="331" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -4827,7 +4827,7 @@
       <c r="J331" s="3"/>
       <c r="K331" s="3"/>
     </row>
-    <row r="332" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -4838,7 +4838,7 @@
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
     </row>
-    <row r="333" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -4849,7 +4849,7 @@
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
     </row>
-    <row r="334" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -4860,7 +4860,7 @@
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
     </row>
-    <row r="335" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -4871,7 +4871,7 @@
       <c r="J335" s="3"/>
       <c r="K335" s="3"/>
     </row>
-    <row r="336" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -4882,7 +4882,7 @@
       <c r="J336" s="3"/>
       <c r="K336" s="3"/>
     </row>
-    <row r="337" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -4893,7 +4893,7 @@
       <c r="J337" s="3"/>
       <c r="K337" s="3"/>
     </row>
-    <row r="338" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -4904,7 +4904,7 @@
       <c r="J338" s="3"/>
       <c r="K338" s="3"/>
     </row>
-    <row r="339" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -4915,7 +4915,7 @@
       <c r="J339" s="3"/>
       <c r="K339" s="3"/>
     </row>
-    <row r="340" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -4926,7 +4926,7 @@
       <c r="J340" s="3"/>
       <c r="K340" s="3"/>
     </row>
-    <row r="341" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -4937,7 +4937,7 @@
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
     </row>
-    <row r="342" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -4948,7 +4948,7 @@
       <c r="J342" s="3"/>
       <c r="K342" s="3"/>
     </row>
-    <row r="343" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -4959,7 +4959,7 @@
       <c r="J343" s="3"/>
       <c r="K343" s="3"/>
     </row>
-    <row r="344" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -4970,7 +4970,7 @@
       <c r="J344" s="3"/>
       <c r="K344" s="3"/>
     </row>
-    <row r="345" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -4981,7 +4981,7 @@
       <c r="J345" s="3"/>
       <c r="K345" s="3"/>
     </row>
-    <row r="346" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -4992,7 +4992,7 @@
       <c r="J346" s="3"/>
       <c r="K346" s="3"/>
     </row>
-    <row r="347" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -5003,7 +5003,7 @@
       <c r="J347" s="3"/>
       <c r="K347" s="3"/>
     </row>
-    <row r="348" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -5014,7 +5014,7 @@
       <c r="J348" s="3"/>
       <c r="K348" s="3"/>
     </row>
-    <row r="349" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -5025,7 +5025,7 @@
       <c r="J349" s="3"/>
       <c r="K349" s="3"/>
     </row>
-    <row r="350" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -5036,7 +5036,7 @@
       <c r="J350" s="3"/>
       <c r="K350" s="3"/>
     </row>
-    <row r="351" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -5047,7 +5047,7 @@
       <c r="J351" s="3"/>
       <c r="K351" s="3"/>
     </row>
-    <row r="352" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -5058,7 +5058,7 @@
       <c r="J352" s="3"/>
       <c r="K352" s="3"/>
     </row>
-    <row r="353" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -5069,7 +5069,7 @@
       <c r="J353" s="3"/>
       <c r="K353" s="3"/>
     </row>
-    <row r="354" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -5080,7 +5080,7 @@
       <c r="J354" s="3"/>
       <c r="K354" s="3"/>
     </row>
-    <row r="355" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -5091,7 +5091,7 @@
       <c r="J355" s="3"/>
       <c r="K355" s="3"/>
     </row>
-    <row r="356" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -5102,7 +5102,7 @@
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
     </row>
-    <row r="357" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -5113,7 +5113,7 @@
       <c r="J357" s="3"/>
       <c r="K357" s="3"/>
     </row>
-    <row r="358" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -5124,7 +5124,7 @@
       <c r="J358" s="3"/>
       <c r="K358" s="3"/>
     </row>
-    <row r="359" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -5135,7 +5135,7 @@
       <c r="J359" s="3"/>
       <c r="K359" s="3"/>
     </row>
-    <row r="360" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -5146,7 +5146,7 @@
       <c r="J360" s="3"/>
       <c r="K360" s="3"/>
     </row>
-    <row r="361" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -5157,7 +5157,7 @@
       <c r="J361" s="3"/>
       <c r="K361" s="3"/>
     </row>
-    <row r="362" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -5168,7 +5168,7 @@
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
     </row>
-    <row r="363" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -5179,7 +5179,7 @@
       <c r="J363" s="3"/>
       <c r="K363" s="3"/>
     </row>
-    <row r="364" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -5190,7 +5190,7 @@
       <c r="J364" s="3"/>
       <c r="K364" s="3"/>
     </row>
-    <row r="365" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -5201,7 +5201,7 @@
       <c r="J365" s="3"/>
       <c r="K365" s="3"/>
     </row>
-    <row r="366" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -5212,7 +5212,7 @@
       <c r="J366" s="3"/>
       <c r="K366" s="3"/>
     </row>
-    <row r="367" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -5223,7 +5223,7 @@
       <c r="J367" s="3"/>
       <c r="K367" s="3"/>
     </row>
-    <row r="368" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -5234,7 +5234,7 @@
       <c r="J368" s="3"/>
       <c r="K368" s="3"/>
     </row>
-    <row r="369" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -5245,7 +5245,7 @@
       <c r="J369" s="3"/>
       <c r="K369" s="3"/>
     </row>
-    <row r="370" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -5256,7 +5256,7 @@
       <c r="J370" s="3"/>
       <c r="K370" s="3"/>
     </row>
-    <row r="371" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -5267,7 +5267,7 @@
       <c r="J371" s="3"/>
       <c r="K371" s="3"/>
     </row>
-    <row r="372" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -5278,7 +5278,7 @@
       <c r="J372" s="3"/>
       <c r="K372" s="3"/>
     </row>
-    <row r="373" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -5289,7 +5289,7 @@
       <c r="J373" s="3"/>
       <c r="K373" s="3"/>
     </row>
-    <row r="374" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -5300,7 +5300,7 @@
       <c r="J374" s="3"/>
       <c r="K374" s="3"/>
     </row>
-    <row r="375" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -5311,7 +5311,7 @@
       <c r="J375" s="3"/>
       <c r="K375" s="3"/>
     </row>
-    <row r="376" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -5322,7 +5322,7 @@
       <c r="J376" s="3"/>
       <c r="K376" s="3"/>
     </row>
-    <row r="377" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -5333,7 +5333,7 @@
       <c r="J377" s="3"/>
       <c r="K377" s="3"/>
     </row>
-    <row r="378" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -5344,7 +5344,7 @@
       <c r="J378" s="3"/>
       <c r="K378" s="3"/>
     </row>
-    <row r="379" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -5355,7 +5355,7 @@
       <c r="J379" s="3"/>
       <c r="K379" s="3"/>
     </row>
-    <row r="380" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -5366,7 +5366,7 @@
       <c r="J380" s="3"/>
       <c r="K380" s="3"/>
     </row>
-    <row r="381" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -5377,7 +5377,7 @@
       <c r="J381" s="3"/>
       <c r="K381" s="3"/>
     </row>
-    <row r="382" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -5388,7 +5388,7 @@
       <c r="J382" s="3"/>
       <c r="K382" s="3"/>
     </row>
-    <row r="383" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -5399,7 +5399,7 @@
       <c r="J383" s="3"/>
       <c r="K383" s="3"/>
     </row>
-    <row r="384" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -5410,7 +5410,7 @@
       <c r="J384" s="3"/>
       <c r="K384" s="3"/>
     </row>
-    <row r="385" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -5421,7 +5421,7 @@
       <c r="J385" s="3"/>
       <c r="K385" s="3"/>
     </row>
-    <row r="386" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -5432,7 +5432,7 @@
       <c r="J386" s="3"/>
       <c r="K386" s="3"/>
     </row>
-    <row r="387" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -5443,7 +5443,7 @@
       <c r="J387" s="3"/>
       <c r="K387" s="3"/>
     </row>
-    <row r="388" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -5454,7 +5454,7 @@
       <c r="J388" s="3"/>
       <c r="K388" s="3"/>
     </row>
-    <row r="389" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -5465,7 +5465,7 @@
       <c r="J389" s="3"/>
       <c r="K389" s="3"/>
     </row>
-    <row r="390" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -5476,7 +5476,7 @@
       <c r="J390" s="3"/>
       <c r="K390" s="3"/>
     </row>
-    <row r="391" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -5487,7 +5487,7 @@
       <c r="J391" s="3"/>
       <c r="K391" s="3"/>
     </row>
-    <row r="392" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -5498,7 +5498,7 @@
       <c r="J392" s="3"/>
       <c r="K392" s="3"/>
     </row>
-    <row r="393" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -5509,7 +5509,7 @@
       <c r="J393" s="3"/>
       <c r="K393" s="3"/>
     </row>
-    <row r="394" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -5520,7 +5520,7 @@
       <c r="J394" s="3"/>
       <c r="K394" s="3"/>
     </row>
-    <row r="395" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -5531,7 +5531,7 @@
       <c r="J395" s="3"/>
       <c r="K395" s="3"/>
     </row>
-    <row r="396" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
